--- a/Resources/CustomRegions/CustomRegionRat_v4.xlsx
+++ b/Resources/CustomRegions/CustomRegionRat_v4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HBP_Analytics\Nutil\Nutil_releases\Resources_for_Nutil\DefaultCustomRegion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharoncy\Documents\GitHub\nutil\Resources\CustomRegions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17205" windowHeight="9405" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17208" windowHeight="9408" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="CustomRegionRat" sheetId="5" r:id="rId1"/>
@@ -86,12 +86,6 @@
     <t>orange</t>
   </si>
   <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>255;255;255</t>
-  </si>
-  <si>
     <t>Atlas Id</t>
   </si>
   <si>
@@ -153,6 +147,12 @@
   </si>
   <si>
     <t>cyan</t>
+  </si>
+  <si>
+    <t>127;32;255</t>
+  </si>
+  <si>
+    <t>purple</t>
   </si>
 </sst>
 </file>
@@ -590,25 +590,25 @@
   <dimension ref="A1:R399"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="8" customWidth="1"/>
-    <col min="7" max="8" width="16.140625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="8" customWidth="1"/>
+    <col min="7" max="8" width="16.109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="14" style="8" customWidth="1"/>
-    <col min="11" max="12" width="15.42578125" style="8" customWidth="1"/>
-    <col min="13" max="1026" width="8.5703125" customWidth="1"/>
+    <col min="11" max="12" width="15.44140625" style="8" customWidth="1"/>
+    <col min="13" max="1026" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -628,10 +628,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>7</v>
@@ -643,68 +643,68 @@
         <v>9</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N1" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="N2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -727,7 +727,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>18</v>
@@ -736,25 +736,25 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6">
         <v>411</v>
@@ -800,7 +800,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="6">
         <v>10</v>
@@ -840,7 +840,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="6">
         <v>427</v>
@@ -878,7 +878,7 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="6">
         <v>430</v>
@@ -910,7 +910,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="6">
         <v>409</v>
@@ -942,7 +942,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="6">
         <v>410</v>
@@ -974,7 +974,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="6">
         <v>424</v>
@@ -1008,7 +1008,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="6">
         <v>414</v>
@@ -1040,7 +1040,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="6">
         <v>416</v>
@@ -1072,7 +1072,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="6">
         <v>77</v>
@@ -1104,7 +1104,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="6">
         <v>403</v>
@@ -1136,7 +1136,7 @@
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="6">
         <v>402</v>
@@ -1168,7 +1168,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="6">
         <v>400</v>
@@ -1198,7 +1198,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="6">
         <v>401</v>
@@ -1226,7 +1226,7 @@
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6">
         <v>404</v>
@@ -1254,7 +1254,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="6">
         <v>405</v>
@@ -1282,7 +1282,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="6">
         <v>413</v>
@@ -1310,7 +1310,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="6">
         <v>408</v>
@@ -1338,7 +1338,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6">
         <v>406</v>
@@ -1366,7 +1366,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="6">
         <v>407</v>
@@ -1394,7 +1394,7 @@
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6">
         <v>420</v>
@@ -1422,7 +1422,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6">
         <v>425</v>
@@ -1450,7 +1450,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6">
         <v>418</v>
@@ -1478,7 +1478,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6">
         <v>417</v>
@@ -1506,7 +1506,7 @@
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6">
         <v>423</v>
@@ -1534,7 +1534,7 @@
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6">
         <v>429</v>
@@ -1562,7 +1562,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="6">
         <v>422</v>
@@ -1590,7 +1590,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="6">
         <v>433</v>
@@ -1618,7 +1618,7 @@
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="6">
         <v>432</v>
@@ -1646,7 +1646,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="6">
         <v>436</v>
@@ -1674,7 +1674,7 @@
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6">
         <v>442</v>
@@ -1702,7 +1702,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="6">
         <v>448</v>
@@ -1729,7 +1729,7 @@
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="6">
         <v>443</v>
@@ -1757,7 +1757,7 @@
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="6">
         <v>444</v>
@@ -1785,7 +1785,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="6">
         <v>151</v>
@@ -1813,7 +1813,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="6">
         <v>152</v>
@@ -1838,7 +1838,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="6">
         <v>153</v>
@@ -1863,7 +1863,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="6">
         <v>412</v>
@@ -1889,7 +1889,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="6">
         <v>500</v>
@@ -1915,7 +1915,7 @@
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6">
@@ -1939,7 +1939,7 @@
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6">
@@ -1963,7 +1963,7 @@
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6">
@@ -1987,7 +1987,7 @@
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6">
@@ -2011,7 +2011,7 @@
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6">
@@ -2035,7 +2035,7 @@
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6">
@@ -2059,7 +2059,7 @@
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6">
@@ -2083,7 +2083,7 @@
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -2105,7 +2105,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -2127,7 +2127,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -2149,7 +2149,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -2171,7 +2171,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2193,7 +2193,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -2215,7 +2215,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -2237,7 +2237,7 @@
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -2259,7 +2259,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -2281,7 +2281,7 @@
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -2303,7 +2303,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -2325,7 +2325,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -2347,7 +2347,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -2369,7 +2369,7 @@
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -2389,7 +2389,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
@@ -2409,7 +2409,7 @@
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="4"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
@@ -2429,7 +2429,7 @@
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="4"/>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
@@ -2449,7 +2449,7 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="4"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
@@ -2469,7 +2469,7 @@
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="4"/>
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
@@ -2489,7 +2489,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="4"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
@@ -2509,7 +2509,7 @@
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="4"/>
       <c r="B70" s="6"/>
       <c r="C70" s="6"/>
@@ -2529,7 +2529,7 @@
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="4"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
@@ -2549,7 +2549,7 @@
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="4"/>
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
@@ -2569,7 +2569,7 @@
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
@@ -2589,7 +2589,7 @@
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="B74" s="6"/>
       <c r="C74" s="6"/>
@@ -2609,7 +2609,7 @@
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
@@ -2629,7 +2629,7 @@
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="B76" s="6"/>
       <c r="C76" s="6"/>
@@ -2649,7 +2649,7 @@
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
@@ -2669,7 +2669,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
       <c r="B78" s="6"/>
       <c r="C78" s="6"/>
@@ -2689,7 +2689,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
       <c r="B79" s="6"/>
       <c r="C79" s="6"/>
@@ -2709,7 +2709,7 @@
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
       <c r="B80" s="6"/>
       <c r="C80" s="6"/>
@@ -2729,7 +2729,7 @@
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
       <c r="B81" s="6"/>
       <c r="C81" s="6"/>
@@ -2749,7 +2749,7 @@
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
       <c r="B82" s="6"/>
       <c r="C82" s="6"/>
@@ -2769,7 +2769,7 @@
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2789,7 +2789,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2809,7 +2809,7 @@
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2829,7 +2829,7 @@
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2849,7 +2849,7 @@
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2869,7 +2869,7 @@
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2889,7 +2889,7 @@
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2909,7 +2909,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2929,7 +2929,7 @@
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2949,7 +2949,7 @@
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2969,7 +2969,7 @@
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2989,7 +2989,7 @@
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -3009,7 +3009,7 @@
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -3029,7 +3029,7 @@
       <c r="Q95" s="5"/>
       <c r="R95" s="5"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="4"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -3049,7 +3049,7 @@
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="4"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -3069,7 +3069,7 @@
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="4"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -3089,7 +3089,7 @@
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="4"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -3109,7 +3109,7 @@
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="4"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -3129,7 +3129,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="4"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -3149,7 +3149,7 @@
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="4"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -3169,7 +3169,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="4"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -3189,7 +3189,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="4"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -3209,7 +3209,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="4"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -3229,7 +3229,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="4"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3249,7 +3249,7 @@
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="4"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3269,7 +3269,7 @@
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="4"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
@@ -3289,7 +3289,7 @@
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="4"/>
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
@@ -3309,7 +3309,7 @@
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="4"/>
       <c r="B110" s="6"/>
       <c r="C110" s="6"/>
@@ -3329,7 +3329,7 @@
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A111" s="4"/>
       <c r="B111" s="6"/>
       <c r="C111" s="6"/>
@@ -3349,7 +3349,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="4"/>
       <c r="B112" s="6"/>
       <c r="C112" s="6"/>
@@ -3369,7 +3369,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="4"/>
       <c r="B113" s="6"/>
       <c r="C113" s="6"/>
@@ -3389,7 +3389,7 @@
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="4"/>
       <c r="B114" s="6"/>
       <c r="C114" s="6"/>
@@ -3409,7 +3409,7 @@
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="4"/>
       <c r="B115" s="6"/>
       <c r="C115" s="6"/>
@@ -3429,7 +3429,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="4"/>
       <c r="B116" s="6"/>
       <c r="C116" s="6"/>
@@ -3449,7 +3449,7 @@
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="4"/>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -3469,7 +3469,7 @@
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="4"/>
       <c r="B118" s="6"/>
       <c r="C118" s="6"/>
@@ -3489,7 +3489,7 @@
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="4"/>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -3509,7 +3509,7 @@
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="4"/>
       <c r="B120" s="6"/>
       <c r="C120" s="6"/>
@@ -3529,7 +3529,7 @@
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="4"/>
       <c r="B121" s="6"/>
       <c r="C121" s="6"/>
@@ -3549,7 +3549,7 @@
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="4"/>
       <c r="B122" s="6"/>
       <c r="C122" s="6"/>
@@ -3569,7 +3569,7 @@
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="4"/>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -3589,7 +3589,7 @@
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" s="4"/>
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
@@ -3609,7 +3609,7 @@
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" s="4"/>
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
@@ -3629,7 +3629,7 @@
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" s="4"/>
       <c r="B126" s="6"/>
       <c r="C126" s="6"/>
@@ -3649,7 +3649,7 @@
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" s="4"/>
       <c r="B127" s="6"/>
       <c r="C127" s="6"/>
@@ -3669,7 +3669,7 @@
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" s="4"/>
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
@@ -3689,7 +3689,7 @@
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" s="4"/>
       <c r="B129" s="6"/>
       <c r="C129" s="6"/>
@@ -3709,7 +3709,7 @@
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" s="4"/>
       <c r="B130" s="6"/>
       <c r="C130" s="6"/>
@@ -3729,7 +3729,7 @@
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" s="4"/>
       <c r="B131" s="6"/>
       <c r="C131" s="6"/>
@@ -3749,7 +3749,7 @@
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" s="4"/>
       <c r="B132" s="6"/>
       <c r="C132" s="6"/>
@@ -3769,7 +3769,7 @@
       <c r="Q132" s="5"/>
       <c r="R132" s="5"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" s="4"/>
       <c r="B133" s="6"/>
       <c r="C133" s="6"/>
@@ -3789,7 +3789,7 @@
       <c r="Q133" s="5"/>
       <c r="R133" s="5"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" s="4"/>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -3809,7 +3809,7 @@
       <c r="Q134" s="5"/>
       <c r="R134" s="5"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" s="4"/>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -3829,7 +3829,7 @@
       <c r="Q135" s="5"/>
       <c r="R135" s="5"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" s="4"/>
       <c r="B136" s="6"/>
       <c r="C136" s="6"/>
@@ -3849,7 +3849,7 @@
       <c r="Q136" s="5"/>
       <c r="R136" s="5"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" s="4"/>
       <c r="B137" s="6"/>
       <c r="C137" s="6"/>
@@ -3869,7 +3869,7 @@
       <c r="Q137" s="5"/>
       <c r="R137" s="5"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" s="4"/>
       <c r="B138" s="6"/>
       <c r="C138" s="6"/>
@@ -3889,7 +3889,7 @@
       <c r="Q138" s="5"/>
       <c r="R138" s="5"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" s="4"/>
       <c r="B139" s="6"/>
       <c r="C139" s="6"/>
@@ -3909,7 +3909,7 @@
       <c r="Q139" s="5"/>
       <c r="R139" s="5"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" s="4"/>
       <c r="B140" s="6"/>
       <c r="C140" s="6"/>
@@ -3929,7 +3929,7 @@
       <c r="Q140" s="5"/>
       <c r="R140" s="5"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" s="4"/>
       <c r="B141" s="6"/>
       <c r="C141" s="6"/>
@@ -3949,7 +3949,7 @@
       <c r="Q141" s="5"/>
       <c r="R141" s="5"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" s="4"/>
       <c r="B142" s="6"/>
       <c r="C142" s="6"/>
@@ -3969,7 +3969,7 @@
       <c r="Q142" s="5"/>
       <c r="R142" s="5"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" s="4"/>
       <c r="B143" s="6"/>
       <c r="C143" s="6"/>
@@ -3989,7 +3989,7 @@
       <c r="Q143" s="5"/>
       <c r="R143" s="5"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" s="4"/>
       <c r="B144" s="6"/>
       <c r="C144" s="6"/>
@@ -4009,7 +4009,7 @@
       <c r="Q144" s="5"/>
       <c r="R144" s="5"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" s="4"/>
       <c r="B145" s="6"/>
       <c r="C145" s="6"/>
@@ -4029,7 +4029,7 @@
       <c r="Q145" s="5"/>
       <c r="R145" s="5"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" s="4"/>
       <c r="B146" s="6"/>
       <c r="C146" s="6"/>
@@ -4049,7 +4049,7 @@
       <c r="Q146" s="5"/>
       <c r="R146" s="5"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" s="4"/>
       <c r="B147" s="6"/>
       <c r="C147" s="6"/>
@@ -4069,7 +4069,7 @@
       <c r="Q147" s="5"/>
       <c r="R147" s="5"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" s="4"/>
       <c r="B148" s="6"/>
       <c r="C148" s="6"/>
@@ -4089,7 +4089,7 @@
       <c r="Q148" s="5"/>
       <c r="R148" s="5"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" s="4"/>
       <c r="B149" s="6"/>
       <c r="C149" s="6"/>
@@ -4109,7 +4109,7 @@
       <c r="Q149" s="5"/>
       <c r="R149" s="5"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" s="4"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -4129,7 +4129,7 @@
       <c r="Q150" s="5"/>
       <c r="R150" s="5"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" s="4"/>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
@@ -4149,7 +4149,7 @@
       <c r="Q151" s="5"/>
       <c r="R151" s="5"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" s="4"/>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -4169,7 +4169,7 @@
       <c r="Q152" s="5"/>
       <c r="R152" s="5"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" s="4"/>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -4189,7 +4189,7 @@
       <c r="Q153" s="5"/>
       <c r="R153" s="5"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" s="4"/>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -4209,7 +4209,7 @@
       <c r="Q154" s="5"/>
       <c r="R154" s="5"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" s="4"/>
       <c r="B155" s="6"/>
       <c r="C155" s="6"/>
@@ -4229,7 +4229,7 @@
       <c r="Q155" s="5"/>
       <c r="R155" s="5"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A156" s="4"/>
       <c r="B156" s="6"/>
       <c r="C156" s="6"/>
@@ -4249,7 +4249,7 @@
       <c r="Q156" s="5"/>
       <c r="R156" s="5"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A157" s="4"/>
       <c r="B157" s="6"/>
       <c r="C157" s="6"/>
@@ -4269,7 +4269,7 @@
       <c r="Q157" s="5"/>
       <c r="R157" s="5"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A158" s="4"/>
       <c r="B158" s="6"/>
       <c r="C158" s="6"/>
@@ -4289,7 +4289,7 @@
       <c r="Q158" s="5"/>
       <c r="R158" s="5"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A159" s="4"/>
       <c r="B159" s="6"/>
       <c r="C159" s="6"/>
@@ -4309,7 +4309,7 @@
       <c r="Q159" s="5"/>
       <c r="R159" s="5"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A160" s="4"/>
       <c r="B160" s="6"/>
       <c r="C160" s="6"/>
@@ -4329,7 +4329,7 @@
       <c r="Q160" s="5"/>
       <c r="R160" s="5"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A161" s="4"/>
       <c r="B161" s="6"/>
       <c r="C161" s="6"/>
@@ -4349,7 +4349,7 @@
       <c r="Q161" s="5"/>
       <c r="R161" s="5"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A162" s="4"/>
       <c r="B162" s="6"/>
       <c r="C162" s="6"/>
@@ -4369,7 +4369,7 @@
       <c r="Q162" s="5"/>
       <c r="R162" s="5"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A163" s="4"/>
       <c r="B163" s="6"/>
       <c r="C163" s="6"/>
@@ -4389,7 +4389,7 @@
       <c r="Q163" s="5"/>
       <c r="R163" s="5"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A164" s="4"/>
       <c r="B164" s="6"/>
       <c r="C164" s="6"/>
@@ -4409,7 +4409,7 @@
       <c r="Q164" s="5"/>
       <c r="R164" s="5"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A165" s="4"/>
       <c r="B165" s="6"/>
       <c r="C165" s="6"/>
@@ -4429,7 +4429,7 @@
       <c r="Q165" s="5"/>
       <c r="R165" s="5"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A166" s="4"/>
       <c r="B166" s="6"/>
       <c r="C166" s="6"/>
@@ -4449,7 +4449,7 @@
       <c r="Q166" s="5"/>
       <c r="R166" s="5"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A167" s="4"/>
       <c r="B167" s="6"/>
       <c r="C167" s="6"/>
@@ -4469,7 +4469,7 @@
       <c r="Q167" s="5"/>
       <c r="R167" s="5"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A168" s="4"/>
       <c r="B168" s="6"/>
       <c r="C168" s="6"/>
@@ -4489,7 +4489,7 @@
       <c r="Q168" s="5"/>
       <c r="R168" s="5"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A169" s="4"/>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -4509,7 +4509,7 @@
       <c r="Q169" s="5"/>
       <c r="R169" s="5"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" s="4"/>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -4529,7 +4529,7 @@
       <c r="Q170" s="5"/>
       <c r="R170" s="5"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" s="4"/>
       <c r="B171" s="6"/>
       <c r="C171" s="6"/>
@@ -4549,7 +4549,7 @@
       <c r="Q171" s="5"/>
       <c r="R171" s="5"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" s="4"/>
       <c r="B172" s="6"/>
       <c r="C172" s="6"/>
@@ -4569,7 +4569,7 @@
       <c r="Q172" s="5"/>
       <c r="R172" s="5"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" s="4"/>
       <c r="B173" s="6"/>
       <c r="C173" s="6"/>
@@ -4589,7 +4589,7 @@
       <c r="Q173" s="5"/>
       <c r="R173" s="5"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" s="4"/>
       <c r="B174" s="6"/>
       <c r="C174" s="6"/>
@@ -4609,7 +4609,7 @@
       <c r="Q174" s="5"/>
       <c r="R174" s="5"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" s="4"/>
       <c r="B175" s="6"/>
       <c r="C175" s="6"/>
@@ -4629,7 +4629,7 @@
       <c r="Q175" s="5"/>
       <c r="R175" s="5"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" s="4"/>
       <c r="B176" s="6"/>
       <c r="C176" s="6"/>
@@ -4649,7 +4649,7 @@
       <c r="Q176" s="5"/>
       <c r="R176" s="5"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" s="4"/>
       <c r="B177" s="6"/>
       <c r="C177" s="6"/>
@@ -4669,7 +4669,7 @@
       <c r="Q177" s="5"/>
       <c r="R177" s="5"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" s="4"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
@@ -4689,7 +4689,7 @@
       <c r="Q178" s="5"/>
       <c r="R178" s="5"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" s="4"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
@@ -4709,7 +4709,7 @@
       <c r="Q179" s="5"/>
       <c r="R179" s="5"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" s="4"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
@@ -4729,7 +4729,7 @@
       <c r="Q180" s="5"/>
       <c r="R180" s="5"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" s="4"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
@@ -4749,7 +4749,7 @@
       <c r="Q181" s="5"/>
       <c r="R181" s="5"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" s="4"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
@@ -4769,7 +4769,7 @@
       <c r="Q182" s="5"/>
       <c r="R182" s="5"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" s="4"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
@@ -4789,7 +4789,7 @@
       <c r="Q183" s="5"/>
       <c r="R183" s="5"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" s="4"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
@@ -4809,7 +4809,7 @@
       <c r="Q184" s="5"/>
       <c r="R184" s="5"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" s="4"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
@@ -4829,7 +4829,7 @@
       <c r="Q185" s="5"/>
       <c r="R185" s="5"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" s="4"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -4849,7 +4849,7 @@
       <c r="Q186" s="5"/>
       <c r="R186" s="5"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" s="4"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -4869,7 +4869,7 @@
       <c r="Q187" s="5"/>
       <c r="R187" s="5"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" s="4"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -4889,7 +4889,7 @@
       <c r="Q188" s="5"/>
       <c r="R188" s="5"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" s="4"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -4909,7 +4909,7 @@
       <c r="Q189" s="5"/>
       <c r="R189" s="5"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" s="4"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -4929,7 +4929,7 @@
       <c r="Q190" s="5"/>
       <c r="R190" s="5"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" s="4"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -4949,7 +4949,7 @@
       <c r="Q191" s="5"/>
       <c r="R191" s="5"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" s="4"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -4969,7 +4969,7 @@
       <c r="Q192" s="5"/>
       <c r="R192" s="5"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" s="4"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -4989,7 +4989,7 @@
       <c r="Q193" s="5"/>
       <c r="R193" s="5"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" s="4"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -5009,7 +5009,7 @@
       <c r="Q194" s="5"/>
       <c r="R194" s="5"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" s="4"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -5029,7 +5029,7 @@
       <c r="Q195" s="5"/>
       <c r="R195" s="5"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" s="4"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -5049,7 +5049,7 @@
       <c r="Q196" s="5"/>
       <c r="R196" s="5"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" s="4"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -5069,7 +5069,7 @@
       <c r="Q197" s="5"/>
       <c r="R197" s="5"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" s="4"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -5089,7 +5089,7 @@
       <c r="Q198" s="5"/>
       <c r="R198" s="5"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" s="4"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -5109,7 +5109,7 @@
       <c r="Q199" s="5"/>
       <c r="R199" s="5"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" s="4"/>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -5129,7 +5129,7 @@
       <c r="Q200" s="5"/>
       <c r="R200" s="5"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" s="4"/>
       <c r="B201" s="6"/>
       <c r="C201" s="6"/>
@@ -5149,7 +5149,7 @@
       <c r="Q201" s="5"/>
       <c r="R201" s="5"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" s="4"/>
       <c r="B202" s="6"/>
       <c r="C202" s="6"/>
@@ -5169,7 +5169,7 @@
       <c r="Q202" s="5"/>
       <c r="R202" s="5"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" s="4"/>
       <c r="B203" s="6"/>
       <c r="C203" s="6"/>
@@ -5189,7 +5189,7 @@
       <c r="Q203" s="5"/>
       <c r="R203" s="5"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" s="4"/>
       <c r="B204" s="6"/>
       <c r="C204" s="6"/>
@@ -5209,7 +5209,7 @@
       <c r="Q204" s="5"/>
       <c r="R204" s="5"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" s="4"/>
       <c r="B205" s="6"/>
       <c r="C205" s="6"/>
@@ -5229,7 +5229,7 @@
       <c r="Q205" s="5"/>
       <c r="R205" s="5"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" s="4"/>
       <c r="B206" s="6"/>
       <c r="C206" s="6"/>
@@ -5249,7 +5249,7 @@
       <c r="Q206" s="5"/>
       <c r="R206" s="5"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" s="4"/>
       <c r="B207" s="6"/>
       <c r="C207" s="6"/>
@@ -5269,7 +5269,7 @@
       <c r="Q207" s="5"/>
       <c r="R207" s="5"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" s="4"/>
       <c r="B208" s="6"/>
       <c r="C208" s="6"/>
@@ -5289,7 +5289,7 @@
       <c r="Q208" s="5"/>
       <c r="R208" s="5"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" s="4"/>
       <c r="B209" s="6"/>
       <c r="C209" s="6"/>
@@ -5309,7 +5309,7 @@
       <c r="Q209" s="5"/>
       <c r="R209" s="5"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" s="4"/>
       <c r="B210" s="6"/>
       <c r="C210" s="6"/>
@@ -5329,7 +5329,7 @@
       <c r="Q210" s="5"/>
       <c r="R210" s="5"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" s="4"/>
       <c r="B211" s="6"/>
       <c r="C211" s="6"/>
@@ -5349,7 +5349,7 @@
       <c r="Q211" s="5"/>
       <c r="R211" s="5"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A212" s="4"/>
       <c r="B212" s="6"/>
       <c r="C212" s="6"/>
@@ -5369,7 +5369,7 @@
       <c r="Q212" s="5"/>
       <c r="R212" s="5"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A213" s="4"/>
       <c r="B213" s="6"/>
       <c r="C213" s="6"/>
@@ -5389,7 +5389,7 @@
       <c r="Q213" s="5"/>
       <c r="R213" s="5"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A214" s="4"/>
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
@@ -5409,7 +5409,7 @@
       <c r="Q214" s="5"/>
       <c r="R214" s="5"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A215" s="4"/>
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
@@ -5429,7 +5429,7 @@
       <c r="Q215" s="5"/>
       <c r="R215" s="5"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A216" s="4"/>
       <c r="B216" s="6"/>
       <c r="C216" s="6"/>
@@ -5449,7 +5449,7 @@
       <c r="Q216" s="5"/>
       <c r="R216" s="5"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A217" s="4"/>
       <c r="B217" s="6"/>
       <c r="C217" s="6"/>
@@ -5469,7 +5469,7 @@
       <c r="Q217" s="5"/>
       <c r="R217" s="5"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A218" s="4"/>
       <c r="B218" s="6"/>
       <c r="C218" s="6"/>
@@ -5489,7 +5489,7 @@
       <c r="Q218" s="5"/>
       <c r="R218" s="5"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A219" s="4"/>
       <c r="B219" s="6"/>
       <c r="C219" s="6"/>
@@ -5509,7 +5509,7 @@
       <c r="Q219" s="5"/>
       <c r="R219" s="5"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A220" s="4"/>
       <c r="B220" s="6"/>
       <c r="C220" s="6"/>
@@ -5529,7 +5529,7 @@
       <c r="Q220" s="5"/>
       <c r="R220" s="5"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A221" s="4"/>
       <c r="B221" s="6"/>
       <c r="C221" s="6"/>
@@ -5549,7 +5549,7 @@
       <c r="Q221" s="5"/>
       <c r="R221" s="5"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A222" s="4"/>
       <c r="B222" s="6"/>
       <c r="C222" s="6"/>
@@ -5569,7 +5569,7 @@
       <c r="Q222" s="5"/>
       <c r="R222" s="5"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A223" s="4"/>
       <c r="B223" s="6"/>
       <c r="C223" s="6"/>
@@ -5589,7 +5589,7 @@
       <c r="Q223" s="5"/>
       <c r="R223" s="5"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A224" s="4"/>
       <c r="B224" s="6"/>
       <c r="C224" s="6"/>
@@ -5609,7 +5609,7 @@
       <c r="Q224" s="5"/>
       <c r="R224" s="5"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A225" s="4"/>
       <c r="B225" s="6"/>
       <c r="C225" s="6"/>
@@ -5629,7 +5629,7 @@
       <c r="Q225" s="5"/>
       <c r="R225" s="5"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" s="4"/>
       <c r="B226" s="6"/>
       <c r="C226" s="6"/>
@@ -5649,7 +5649,7 @@
       <c r="Q226" s="5"/>
       <c r="R226" s="5"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" s="4"/>
       <c r="B227" s="6"/>
       <c r="C227" s="6"/>
@@ -5669,7 +5669,7 @@
       <c r="Q227" s="5"/>
       <c r="R227" s="5"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" s="4"/>
       <c r="B228" s="6"/>
       <c r="C228" s="6"/>
@@ -5689,7 +5689,7 @@
       <c r="Q228" s="5"/>
       <c r="R228" s="5"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" s="4"/>
       <c r="B229" s="6"/>
       <c r="C229" s="6"/>
@@ -5709,7 +5709,7 @@
       <c r="Q229" s="5"/>
       <c r="R229" s="5"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" s="4"/>
       <c r="B230" s="6"/>
       <c r="C230" s="6"/>
@@ -5729,7 +5729,7 @@
       <c r="Q230" s="5"/>
       <c r="R230" s="5"/>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" s="4"/>
       <c r="B231" s="6"/>
       <c r="C231" s="6"/>
@@ -5749,7 +5749,7 @@
       <c r="Q231" s="5"/>
       <c r="R231" s="5"/>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" s="4"/>
       <c r="B232" s="6"/>
       <c r="C232" s="6"/>
@@ -5769,7 +5769,7 @@
       <c r="Q232" s="5"/>
       <c r="R232" s="5"/>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" s="4"/>
       <c r="B233" s="6"/>
       <c r="C233" s="6"/>
@@ -5789,7 +5789,7 @@
       <c r="Q233" s="5"/>
       <c r="R233" s="5"/>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" s="4"/>
       <c r="B234" s="6"/>
       <c r="C234" s="6"/>
@@ -5809,7 +5809,7 @@
       <c r="Q234" s="5"/>
       <c r="R234" s="5"/>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" s="4"/>
       <c r="B235" s="6"/>
       <c r="C235" s="6"/>
@@ -5829,7 +5829,7 @@
       <c r="Q235" s="5"/>
       <c r="R235" s="5"/>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" s="4"/>
       <c r="B236" s="6"/>
       <c r="C236" s="6"/>
@@ -5849,7 +5849,7 @@
       <c r="Q236" s="5"/>
       <c r="R236" s="5"/>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" s="4"/>
       <c r="B237" s="6"/>
       <c r="C237" s="6"/>
@@ -5869,7 +5869,7 @@
       <c r="Q237" s="5"/>
       <c r="R237" s="5"/>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" s="4"/>
       <c r="B238" s="6"/>
       <c r="C238" s="6"/>
@@ -5889,7 +5889,7 @@
       <c r="Q238" s="5"/>
       <c r="R238" s="5"/>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" s="4"/>
       <c r="B239" s="6"/>
       <c r="C239" s="6"/>
@@ -5909,7 +5909,7 @@
       <c r="Q239" s="5"/>
       <c r="R239" s="5"/>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" s="4"/>
       <c r="B240" s="6"/>
       <c r="C240" s="6"/>
@@ -5929,7 +5929,7 @@
       <c r="Q240" s="5"/>
       <c r="R240" s="5"/>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" s="4"/>
       <c r="B241" s="6"/>
       <c r="C241" s="6"/>
@@ -5949,7 +5949,7 @@
       <c r="Q241" s="5"/>
       <c r="R241" s="5"/>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" s="4"/>
       <c r="B242" s="6"/>
       <c r="C242" s="6"/>
@@ -5969,7 +5969,7 @@
       <c r="Q242" s="5"/>
       <c r="R242" s="5"/>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" s="4"/>
       <c r="B243" s="6"/>
       <c r="C243" s="6"/>
@@ -5989,7 +5989,7 @@
       <c r="Q243" s="5"/>
       <c r="R243" s="5"/>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="6"/>
       <c r="C244" s="6"/>
@@ -6009,7 +6009,7 @@
       <c r="Q244" s="5"/>
       <c r="R244" s="5"/>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" s="4"/>
       <c r="B245" s="6"/>
       <c r="C245" s="6"/>
@@ -6029,7 +6029,7 @@
       <c r="Q245" s="5"/>
       <c r="R245" s="5"/>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" s="4"/>
       <c r="B246" s="6"/>
       <c r="C246" s="6"/>
@@ -6049,7 +6049,7 @@
       <c r="Q246" s="5"/>
       <c r="R246" s="5"/>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" s="4"/>
       <c r="B247" s="6"/>
       <c r="C247" s="6"/>
@@ -6069,7 +6069,7 @@
       <c r="Q247" s="5"/>
       <c r="R247" s="5"/>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" s="4"/>
       <c r="B248" s="6"/>
       <c r="C248" s="6"/>
@@ -6089,7 +6089,7 @@
       <c r="Q248" s="5"/>
       <c r="R248" s="5"/>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" s="4"/>
       <c r="B249" s="6"/>
       <c r="C249" s="6"/>
@@ -6109,7 +6109,7 @@
       <c r="Q249" s="5"/>
       <c r="R249" s="5"/>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" s="4"/>
       <c r="B250" s="6"/>
       <c r="C250" s="6"/>
@@ -6129,7 +6129,7 @@
       <c r="Q250" s="5"/>
       <c r="R250" s="5"/>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" s="4"/>
       <c r="B251" s="6"/>
       <c r="C251" s="6"/>
@@ -6149,7 +6149,7 @@
       <c r="Q251" s="5"/>
       <c r="R251" s="5"/>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" s="4"/>
       <c r="B252" s="6"/>
       <c r="C252" s="6"/>
@@ -6169,7 +6169,7 @@
       <c r="Q252" s="5"/>
       <c r="R252" s="5"/>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" s="4"/>
       <c r="B253" s="6"/>
       <c r="C253" s="6"/>
@@ -6189,7 +6189,7 @@
       <c r="Q253" s="5"/>
       <c r="R253" s="5"/>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" s="4"/>
       <c r="B254" s="6"/>
       <c r="C254" s="6"/>
@@ -6209,7 +6209,7 @@
       <c r="Q254" s="5"/>
       <c r="R254" s="5"/>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" s="4"/>
       <c r="B255" s="6"/>
       <c r="C255" s="6"/>
@@ -6229,7 +6229,7 @@
       <c r="Q255" s="5"/>
       <c r="R255" s="5"/>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" s="4"/>
       <c r="B256" s="6"/>
       <c r="C256" s="6"/>
@@ -6249,7 +6249,7 @@
       <c r="Q256" s="5"/>
       <c r="R256" s="5"/>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" s="4"/>
       <c r="B257" s="6"/>
       <c r="C257" s="6"/>
@@ -6269,7 +6269,7 @@
       <c r="Q257" s="5"/>
       <c r="R257" s="5"/>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" s="4"/>
       <c r="B258" s="6"/>
       <c r="C258" s="6"/>
@@ -6289,7 +6289,7 @@
       <c r="Q258" s="5"/>
       <c r="R258" s="5"/>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" s="4"/>
       <c r="B259" s="6"/>
       <c r="C259" s="6"/>
@@ -6309,7 +6309,7 @@
       <c r="Q259" s="5"/>
       <c r="R259" s="5"/>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" s="4"/>
       <c r="B260" s="6"/>
       <c r="C260" s="6"/>
@@ -6329,7 +6329,7 @@
       <c r="Q260" s="5"/>
       <c r="R260" s="5"/>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" s="4"/>
       <c r="B261" s="6"/>
       <c r="C261" s="6"/>
@@ -6349,7 +6349,7 @@
       <c r="Q261" s="5"/>
       <c r="R261" s="5"/>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" s="4"/>
       <c r="B262" s="6"/>
       <c r="C262" s="6"/>
@@ -6369,7 +6369,7 @@
       <c r="Q262" s="5"/>
       <c r="R262" s="5"/>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" s="4"/>
       <c r="B263" s="6"/>
       <c r="C263" s="6"/>
@@ -6389,7 +6389,7 @@
       <c r="Q263" s="5"/>
       <c r="R263" s="5"/>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" s="4"/>
       <c r="B264" s="6"/>
       <c r="C264" s="6"/>
@@ -6409,7 +6409,7 @@
       <c r="Q264" s="5"/>
       <c r="R264" s="5"/>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" s="4"/>
       <c r="B265" s="6"/>
       <c r="C265" s="6"/>
@@ -6429,7 +6429,7 @@
       <c r="Q265" s="5"/>
       <c r="R265" s="5"/>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" s="4"/>
       <c r="B266" s="6"/>
       <c r="C266" s="6"/>
@@ -6449,7 +6449,7 @@
       <c r="Q266" s="5"/>
       <c r="R266" s="5"/>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" s="4"/>
       <c r="B267" s="6"/>
       <c r="C267" s="6"/>
@@ -6469,7 +6469,7 @@
       <c r="Q267" s="5"/>
       <c r="R267" s="5"/>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" s="4"/>
       <c r="B268" s="6"/>
       <c r="C268" s="6"/>
@@ -6489,7 +6489,7 @@
       <c r="Q268" s="5"/>
       <c r="R268" s="5"/>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" s="4"/>
       <c r="B269" s="6"/>
       <c r="C269" s="6"/>
@@ -6509,7 +6509,7 @@
       <c r="Q269" s="5"/>
       <c r="R269" s="5"/>
     </row>
-    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" s="4"/>
       <c r="B270" s="6"/>
       <c r="C270" s="6"/>
@@ -6529,7 +6529,7 @@
       <c r="Q270" s="5"/>
       <c r="R270" s="5"/>
     </row>
-    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" s="4"/>
       <c r="B271" s="6"/>
       <c r="C271" s="6"/>
@@ -6549,7 +6549,7 @@
       <c r="Q271" s="5"/>
       <c r="R271" s="5"/>
     </row>
-    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" s="4"/>
       <c r="B272" s="6"/>
       <c r="C272" s="6"/>
@@ -6569,7 +6569,7 @@
       <c r="Q272" s="5"/>
       <c r="R272" s="5"/>
     </row>
-    <row r="273" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" s="4"/>
       <c r="B273" s="6"/>
       <c r="C273" s="6"/>
@@ -6589,7 +6589,7 @@
       <c r="Q273" s="5"/>
       <c r="R273" s="5"/>
     </row>
-    <row r="274" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" s="4"/>
       <c r="B274" s="6"/>
       <c r="C274" s="6"/>
@@ -6609,7 +6609,7 @@
       <c r="Q274" s="5"/>
       <c r="R274" s="5"/>
     </row>
-    <row r="275" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" s="4"/>
       <c r="B275" s="6"/>
       <c r="C275" s="6"/>
@@ -6629,7 +6629,7 @@
       <c r="Q275" s="5"/>
       <c r="R275" s="5"/>
     </row>
-    <row r="276" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" s="4"/>
       <c r="B276" s="6"/>
       <c r="C276" s="6"/>
@@ -6649,7 +6649,7 @@
       <c r="Q276" s="5"/>
       <c r="R276" s="5"/>
     </row>
-    <row r="277" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" s="4"/>
       <c r="B277" s="6"/>
       <c r="C277" s="6"/>
@@ -6669,7 +6669,7 @@
       <c r="Q277" s="5"/>
       <c r="R277" s="5"/>
     </row>
-    <row r="278" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" s="4"/>
       <c r="B278" s="6"/>
       <c r="C278" s="6"/>
@@ -6689,7 +6689,7 @@
       <c r="Q278" s="5"/>
       <c r="R278" s="5"/>
     </row>
-    <row r="279" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" s="4"/>
       <c r="B279" s="6"/>
       <c r="C279" s="6"/>
@@ -6709,7 +6709,7 @@
       <c r="Q279" s="5"/>
       <c r="R279" s="5"/>
     </row>
-    <row r="280" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" s="4"/>
       <c r="B280" s="6"/>
       <c r="C280" s="6"/>
@@ -6729,7 +6729,7 @@
       <c r="Q280" s="5"/>
       <c r="R280" s="5"/>
     </row>
-    <row r="281" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" s="4"/>
       <c r="B281" s="6"/>
       <c r="C281" s="6"/>
@@ -6749,7 +6749,7 @@
       <c r="Q281" s="5"/>
       <c r="R281" s="5"/>
     </row>
-    <row r="282" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A282" s="4"/>
       <c r="B282" s="6"/>
       <c r="C282" s="6"/>
@@ -6769,7 +6769,7 @@
       <c r="Q282" s="5"/>
       <c r="R282" s="5"/>
     </row>
-    <row r="283" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A283" s="4"/>
       <c r="B283" s="6"/>
       <c r="C283" s="6"/>
@@ -6789,7 +6789,7 @@
       <c r="Q283" s="5"/>
       <c r="R283" s="5"/>
     </row>
-    <row r="284" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A284" s="4"/>
       <c r="B284" s="6"/>
       <c r="C284" s="6"/>
@@ -6809,7 +6809,7 @@
       <c r="Q284" s="5"/>
       <c r="R284" s="5"/>
     </row>
-    <row r="285" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A285" s="4"/>
       <c r="B285" s="6"/>
       <c r="C285" s="6"/>
@@ -6829,7 +6829,7 @@
       <c r="Q285" s="5"/>
       <c r="R285" s="5"/>
     </row>
-    <row r="286" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A286" s="4"/>
       <c r="B286" s="6"/>
       <c r="C286" s="6"/>
@@ -6849,7 +6849,7 @@
       <c r="Q286" s="5"/>
       <c r="R286" s="5"/>
     </row>
-    <row r="287" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A287" s="4"/>
       <c r="B287" s="6"/>
       <c r="C287" s="6"/>
@@ -6869,7 +6869,7 @@
       <c r="Q287" s="5"/>
       <c r="R287" s="5"/>
     </row>
-    <row r="288" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A288" s="4"/>
       <c r="B288" s="6"/>
       <c r="C288" s="6"/>
@@ -6889,7 +6889,7 @@
       <c r="Q288" s="5"/>
       <c r="R288" s="5"/>
     </row>
-    <row r="289" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A289" s="4"/>
       <c r="B289" s="6"/>
       <c r="C289" s="6"/>
@@ -6909,7 +6909,7 @@
       <c r="Q289" s="5"/>
       <c r="R289" s="5"/>
     </row>
-    <row r="290" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A290" s="4"/>
       <c r="B290" s="6"/>
       <c r="C290" s="6"/>
@@ -6929,7 +6929,7 @@
       <c r="Q290" s="5"/>
       <c r="R290" s="5"/>
     </row>
-    <row r="291" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A291" s="4"/>
       <c r="B291" s="6"/>
       <c r="C291" s="6"/>
@@ -6949,7 +6949,7 @@
       <c r="Q291" s="5"/>
       <c r="R291" s="5"/>
     </row>
-    <row r="292" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A292" s="4"/>
       <c r="B292" s="6"/>
       <c r="C292" s="6"/>
@@ -6969,7 +6969,7 @@
       <c r="Q292" s="5"/>
       <c r="R292" s="5"/>
     </row>
-    <row r="293" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A293" s="4"/>
       <c r="B293" s="6"/>
       <c r="C293" s="6"/>
@@ -6989,7 +6989,7 @@
       <c r="Q293" s="5"/>
       <c r="R293" s="5"/>
     </row>
-    <row r="294" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A294" s="4"/>
       <c r="B294" s="6"/>
       <c r="C294" s="6"/>
@@ -7009,7 +7009,7 @@
       <c r="Q294" s="5"/>
       <c r="R294" s="5"/>
     </row>
-    <row r="295" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A295" s="4"/>
       <c r="B295" s="6"/>
       <c r="C295" s="6"/>
@@ -7029,7 +7029,7 @@
       <c r="Q295" s="5"/>
       <c r="R295" s="5"/>
     </row>
-    <row r="296" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A296" s="4"/>
       <c r="B296" s="6"/>
       <c r="C296" s="6"/>
@@ -7049,7 +7049,7 @@
       <c r="Q296" s="5"/>
       <c r="R296" s="5"/>
     </row>
-    <row r="297" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A297" s="4"/>
       <c r="B297" s="6"/>
       <c r="C297" s="6"/>
@@ -7069,7 +7069,7 @@
       <c r="Q297" s="5"/>
       <c r="R297" s="5"/>
     </row>
-    <row r="298" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A298" s="4"/>
       <c r="B298" s="6"/>
       <c r="C298" s="6"/>
@@ -7089,7 +7089,7 @@
       <c r="Q298" s="5"/>
       <c r="R298" s="5"/>
     </row>
-    <row r="299" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A299" s="4"/>
       <c r="B299" s="6"/>
       <c r="C299" s="6"/>
@@ -7109,7 +7109,7 @@
       <c r="Q299" s="5"/>
       <c r="R299" s="5"/>
     </row>
-    <row r="300" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A300" s="4"/>
       <c r="B300" s="6"/>
       <c r="C300" s="6"/>
@@ -7129,7 +7129,7 @@
       <c r="Q300" s="5"/>
       <c r="R300" s="5"/>
     </row>
-    <row r="301" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A301" s="4"/>
       <c r="B301" s="6"/>
       <c r="C301" s="6"/>
@@ -7149,7 +7149,7 @@
       <c r="Q301" s="5"/>
       <c r="R301" s="5"/>
     </row>
-    <row r="302" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A302" s="4"/>
       <c r="B302" s="6"/>
       <c r="C302" s="6"/>
@@ -7169,7 +7169,7 @@
       <c r="Q302" s="5"/>
       <c r="R302" s="5"/>
     </row>
-    <row r="303" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A303" s="4"/>
       <c r="B303" s="6"/>
       <c r="C303" s="6"/>
@@ -7189,7 +7189,7 @@
       <c r="Q303" s="5"/>
       <c r="R303" s="5"/>
     </row>
-    <row r="304" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A304" s="4"/>
       <c r="B304" s="6"/>
       <c r="C304" s="6"/>
@@ -7209,7 +7209,7 @@
       <c r="Q304" s="5"/>
       <c r="R304" s="5"/>
     </row>
-    <row r="305" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A305" s="4"/>
       <c r="B305" s="6"/>
       <c r="C305" s="6"/>
@@ -7229,7 +7229,7 @@
       <c r="Q305" s="5"/>
       <c r="R305" s="5"/>
     </row>
-    <row r="306" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A306" s="4"/>
       <c r="B306" s="6"/>
       <c r="C306" s="6"/>
@@ -7249,7 +7249,7 @@
       <c r="Q306" s="5"/>
       <c r="R306" s="5"/>
     </row>
-    <row r="307" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A307" s="4"/>
       <c r="B307" s="6"/>
       <c r="C307" s="6"/>
@@ -7269,7 +7269,7 @@
       <c r="Q307" s="5"/>
       <c r="R307" s="5"/>
     </row>
-    <row r="308" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A308" s="4"/>
       <c r="B308" s="6"/>
       <c r="C308" s="6"/>
@@ -7289,7 +7289,7 @@
       <c r="Q308" s="5"/>
       <c r="R308" s="5"/>
     </row>
-    <row r="309" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A309" s="4"/>
       <c r="B309" s="6"/>
       <c r="C309" s="6"/>
@@ -7309,7 +7309,7 @@
       <c r="Q309" s="5"/>
       <c r="R309" s="5"/>
     </row>
-    <row r="310" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A310" s="4"/>
       <c r="B310" s="6"/>
       <c r="C310" s="6"/>
@@ -7329,7 +7329,7 @@
       <c r="Q310" s="5"/>
       <c r="R310" s="5"/>
     </row>
-    <row r="311" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A311" s="4"/>
       <c r="B311" s="6"/>
       <c r="C311" s="6"/>
@@ -7349,7 +7349,7 @@
       <c r="Q311" s="5"/>
       <c r="R311" s="5"/>
     </row>
-    <row r="312" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A312" s="4"/>
       <c r="B312" s="6"/>
       <c r="C312" s="6"/>
@@ -7369,7 +7369,7 @@
       <c r="Q312" s="5"/>
       <c r="R312" s="5"/>
     </row>
-    <row r="313" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A313" s="4"/>
       <c r="B313" s="6"/>
       <c r="C313" s="6"/>
@@ -7389,7 +7389,7 @@
       <c r="Q313" s="5"/>
       <c r="R313" s="5"/>
     </row>
-    <row r="314" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A314" s="4"/>
       <c r="B314" s="6"/>
       <c r="C314" s="6"/>
@@ -7409,7 +7409,7 @@
       <c r="Q314" s="5"/>
       <c r="R314" s="5"/>
     </row>
-    <row r="315" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A315" s="4"/>
       <c r="B315" s="6"/>
       <c r="C315" s="6"/>
@@ -7429,7 +7429,7 @@
       <c r="Q315" s="5"/>
       <c r="R315" s="5"/>
     </row>
-    <row r="316" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A316" s="4"/>
       <c r="B316" s="6"/>
       <c r="C316" s="6"/>
@@ -7449,7 +7449,7 @@
       <c r="Q316" s="5"/>
       <c r="R316" s="5"/>
     </row>
-    <row r="317" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A317" s="4"/>
       <c r="B317" s="6"/>
       <c r="C317" s="6"/>
@@ -7469,7 +7469,7 @@
       <c r="Q317" s="5"/>
       <c r="R317" s="5"/>
     </row>
-    <row r="318" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A318" s="4"/>
       <c r="B318" s="6"/>
       <c r="C318" s="6"/>
@@ -7489,7 +7489,7 @@
       <c r="Q318" s="5"/>
       <c r="R318" s="5"/>
     </row>
-    <row r="319" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A319" s="4"/>
       <c r="B319" s="6"/>
       <c r="C319" s="6"/>
@@ -7509,7 +7509,7 @@
       <c r="Q319" s="5"/>
       <c r="R319" s="5"/>
     </row>
-    <row r="320" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A320" s="4"/>
       <c r="B320" s="6"/>
       <c r="C320" s="6"/>
@@ -7529,7 +7529,7 @@
       <c r="Q320" s="5"/>
       <c r="R320" s="5"/>
     </row>
-    <row r="321" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A321" s="4"/>
       <c r="B321" s="6"/>
       <c r="C321" s="6"/>
@@ -7549,7 +7549,7 @@
       <c r="Q321" s="5"/>
       <c r="R321" s="5"/>
     </row>
-    <row r="322" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A322" s="4"/>
       <c r="B322" s="6"/>
       <c r="C322" s="6"/>
@@ -7569,7 +7569,7 @@
       <c r="Q322" s="5"/>
       <c r="R322" s="5"/>
     </row>
-    <row r="323" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A323" s="4"/>
       <c r="B323" s="6"/>
       <c r="C323" s="6"/>
@@ -7589,7 +7589,7 @@
       <c r="Q323" s="5"/>
       <c r="R323" s="5"/>
     </row>
-    <row r="324" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A324" s="4"/>
       <c r="B324" s="6"/>
       <c r="C324" s="6"/>
@@ -7609,7 +7609,7 @@
       <c r="Q324" s="5"/>
       <c r="R324" s="5"/>
     </row>
-    <row r="325" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A325" s="4"/>
       <c r="B325" s="6"/>
       <c r="C325" s="6"/>
@@ -7629,7 +7629,7 @@
       <c r="Q325" s="5"/>
       <c r="R325" s="5"/>
     </row>
-    <row r="326" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A326" s="4"/>
       <c r="B326" s="6"/>
       <c r="C326" s="6"/>
@@ -7649,7 +7649,7 @@
       <c r="Q326" s="5"/>
       <c r="R326" s="5"/>
     </row>
-    <row r="327" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A327" s="4"/>
       <c r="B327" s="6"/>
       <c r="C327" s="6"/>
@@ -7669,7 +7669,7 @@
       <c r="Q327" s="5"/>
       <c r="R327" s="5"/>
     </row>
-    <row r="328" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A328" s="4"/>
       <c r="B328" s="6"/>
       <c r="C328" s="6"/>
@@ -7689,7 +7689,7 @@
       <c r="Q328" s="5"/>
       <c r="R328" s="5"/>
     </row>
-    <row r="329" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A329" s="4"/>
       <c r="B329" s="6"/>
       <c r="C329" s="6"/>
@@ -7709,7 +7709,7 @@
       <c r="Q329" s="5"/>
       <c r="R329" s="5"/>
     </row>
-    <row r="330" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A330" s="4"/>
       <c r="B330" s="6"/>
       <c r="C330" s="6"/>
@@ -7729,7 +7729,7 @@
       <c r="Q330" s="5"/>
       <c r="R330" s="5"/>
     </row>
-    <row r="331" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A331" s="4"/>
       <c r="B331" s="6"/>
       <c r="C331" s="6"/>
@@ -7749,7 +7749,7 @@
       <c r="Q331" s="5"/>
       <c r="R331" s="5"/>
     </row>
-    <row r="332" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A332" s="4"/>
       <c r="B332" s="6"/>
       <c r="C332" s="6"/>
@@ -7769,7 +7769,7 @@
       <c r="Q332" s="5"/>
       <c r="R332" s="5"/>
     </row>
-    <row r="333" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A333" s="4"/>
       <c r="B333" s="6"/>
       <c r="C333" s="6"/>
@@ -7789,7 +7789,7 @@
       <c r="Q333" s="5"/>
       <c r="R333" s="5"/>
     </row>
-    <row r="334" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A334" s="4"/>
       <c r="B334" s="6"/>
       <c r="C334" s="6"/>
@@ -7809,7 +7809,7 @@
       <c r="Q334" s="5"/>
       <c r="R334" s="5"/>
     </row>
-    <row r="335" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A335" s="4"/>
       <c r="B335" s="6"/>
       <c r="C335" s="6"/>
@@ -7829,7 +7829,7 @@
       <c r="Q335" s="5"/>
       <c r="R335" s="5"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A336" s="4"/>
       <c r="B336" s="6"/>
       <c r="C336" s="6"/>
@@ -7849,7 +7849,7 @@
       <c r="Q336" s="5"/>
       <c r="R336" s="5"/>
     </row>
-    <row r="337" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A337" s="4"/>
       <c r="B337" s="6"/>
       <c r="C337" s="6"/>
@@ -7869,7 +7869,7 @@
       <c r="Q337" s="5"/>
       <c r="R337" s="5"/>
     </row>
-    <row r="338" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A338" s="4"/>
       <c r="B338" s="6"/>
       <c r="C338" s="6"/>
@@ -7889,7 +7889,7 @@
       <c r="Q338" s="5"/>
       <c r="R338" s="5"/>
     </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A339" s="4"/>
       <c r="B339" s="6"/>
       <c r="C339" s="6"/>
@@ -7909,7 +7909,7 @@
       <c r="Q339" s="5"/>
       <c r="R339" s="5"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A340" s="4"/>
       <c r="B340" s="6"/>
       <c r="C340" s="6"/>
@@ -7929,7 +7929,7 @@
       <c r="Q340" s="5"/>
       <c r="R340" s="5"/>
     </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A341" s="4"/>
       <c r="B341" s="6"/>
       <c r="C341" s="6"/>
@@ -7949,7 +7949,7 @@
       <c r="Q341" s="5"/>
       <c r="R341" s="5"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A342" s="4"/>
       <c r="B342" s="6"/>
       <c r="C342" s="6"/>
@@ -7969,7 +7969,7 @@
       <c r="Q342" s="5"/>
       <c r="R342" s="5"/>
     </row>
-    <row r="343" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A343" s="4"/>
       <c r="B343" s="6"/>
       <c r="C343" s="6"/>
@@ -7989,7 +7989,7 @@
       <c r="Q343" s="5"/>
       <c r="R343" s="5"/>
     </row>
-    <row r="344" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A344" s="4"/>
       <c r="B344" s="6"/>
       <c r="C344" s="6"/>
@@ -8009,7 +8009,7 @@
       <c r="Q344" s="5"/>
       <c r="R344" s="5"/>
     </row>
-    <row r="345" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A345" s="4"/>
       <c r="B345" s="6"/>
       <c r="C345" s="6"/>
@@ -8029,7 +8029,7 @@
       <c r="Q345" s="5"/>
       <c r="R345" s="5"/>
     </row>
-    <row r="346" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A346" s="4"/>
       <c r="B346" s="6"/>
       <c r="C346" s="6"/>
@@ -8049,7 +8049,7 @@
       <c r="Q346" s="5"/>
       <c r="R346" s="5"/>
     </row>
-    <row r="347" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A347" s="4"/>
       <c r="B347" s="6"/>
       <c r="C347" s="6"/>
@@ -8069,7 +8069,7 @@
       <c r="Q347" s="5"/>
       <c r="R347" s="5"/>
     </row>
-    <row r="348" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A348" s="4"/>
       <c r="B348" s="6"/>
       <c r="C348" s="6"/>
@@ -8089,7 +8089,7 @@
       <c r="Q348" s="5"/>
       <c r="R348" s="5"/>
     </row>
-    <row r="349" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A349" s="4"/>
       <c r="B349" s="6"/>
       <c r="C349" s="6"/>
@@ -8109,7 +8109,7 @@
       <c r="Q349" s="5"/>
       <c r="R349" s="5"/>
     </row>
-    <row r="350" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A350" s="4"/>
       <c r="B350" s="6"/>
       <c r="C350" s="6"/>
@@ -8129,7 +8129,7 @@
       <c r="Q350" s="5"/>
       <c r="R350" s="5"/>
     </row>
-    <row r="351" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A351" s="4"/>
       <c r="B351" s="6"/>
       <c r="C351" s="6"/>
@@ -8149,7 +8149,7 @@
       <c r="Q351" s="5"/>
       <c r="R351" s="5"/>
     </row>
-    <row r="352" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A352" s="4"/>
       <c r="B352" s="6"/>
       <c r="C352" s="6"/>
@@ -8169,7 +8169,7 @@
       <c r="Q352" s="5"/>
       <c r="R352" s="5"/>
     </row>
-    <row r="353" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A353" s="4"/>
       <c r="B353" s="6"/>
       <c r="C353" s="6"/>
@@ -8189,7 +8189,7 @@
       <c r="Q353" s="5"/>
       <c r="R353" s="5"/>
     </row>
-    <row r="354" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A354" s="4"/>
       <c r="B354" s="6"/>
       <c r="C354" s="6"/>
@@ -8209,7 +8209,7 @@
       <c r="Q354" s="5"/>
       <c r="R354" s="5"/>
     </row>
-    <row r="355" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A355" s="4"/>
       <c r="B355" s="6"/>
       <c r="C355" s="6"/>
@@ -8229,7 +8229,7 @@
       <c r="Q355" s="5"/>
       <c r="R355" s="5"/>
     </row>
-    <row r="356" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A356" s="4"/>
       <c r="B356" s="6"/>
       <c r="C356" s="6"/>
@@ -8249,7 +8249,7 @@
       <c r="Q356" s="5"/>
       <c r="R356" s="5"/>
     </row>
-    <row r="357" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A357" s="4"/>
       <c r="B357" s="6"/>
       <c r="C357" s="6"/>
@@ -8269,7 +8269,7 @@
       <c r="Q357" s="5"/>
       <c r="R357" s="5"/>
     </row>
-    <row r="358" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A358" s="4"/>
       <c r="B358" s="6"/>
       <c r="C358" s="6"/>
@@ -8289,7 +8289,7 @@
       <c r="Q358" s="5"/>
       <c r="R358" s="5"/>
     </row>
-    <row r="359" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A359" s="4"/>
       <c r="B359" s="6"/>
       <c r="C359" s="6"/>
@@ -8309,7 +8309,7 @@
       <c r="Q359" s="5"/>
       <c r="R359" s="5"/>
     </row>
-    <row r="360" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A360" s="4"/>
       <c r="B360" s="6"/>
       <c r="C360" s="6"/>
@@ -8329,7 +8329,7 @@
       <c r="Q360" s="5"/>
       <c r="R360" s="5"/>
     </row>
-    <row r="361" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A361" s="4"/>
       <c r="B361" s="6"/>
       <c r="C361" s="6"/>
@@ -8349,7 +8349,7 @@
       <c r="Q361" s="5"/>
       <c r="R361" s="5"/>
     </row>
-    <row r="362" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A362" s="4"/>
       <c r="B362" s="6"/>
       <c r="C362" s="6"/>
@@ -8369,7 +8369,7 @@
       <c r="Q362" s="5"/>
       <c r="R362" s="5"/>
     </row>
-    <row r="363" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A363" s="4"/>
       <c r="B363" s="6"/>
       <c r="C363" s="6"/>
@@ -8389,7 +8389,7 @@
       <c r="Q363" s="5"/>
       <c r="R363" s="5"/>
     </row>
-    <row r="364" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A364" s="4"/>
       <c r="B364" s="6"/>
       <c r="C364" s="6"/>
@@ -8409,7 +8409,7 @@
       <c r="Q364" s="5"/>
       <c r="R364" s="5"/>
     </row>
-    <row r="365" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A365" s="4"/>
       <c r="B365" s="6"/>
       <c r="C365" s="6"/>
@@ -8429,7 +8429,7 @@
       <c r="Q365" s="5"/>
       <c r="R365" s="5"/>
     </row>
-    <row r="366" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A366" s="4"/>
       <c r="B366" s="6"/>
       <c r="C366" s="6"/>
@@ -8449,7 +8449,7 @@
       <c r="Q366" s="5"/>
       <c r="R366" s="5"/>
     </row>
-    <row r="367" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A367" s="4"/>
       <c r="B367" s="6"/>
       <c r="C367" s="6"/>
@@ -8469,7 +8469,7 @@
       <c r="Q367" s="5"/>
       <c r="R367" s="5"/>
     </row>
-    <row r="368" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A368" s="4"/>
       <c r="B368" s="6"/>
       <c r="C368" s="6"/>
@@ -8489,7 +8489,7 @@
       <c r="Q368" s="5"/>
       <c r="R368" s="5"/>
     </row>
-    <row r="369" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A369" s="4"/>
       <c r="B369" s="6"/>
       <c r="C369" s="6"/>
@@ -8509,7 +8509,7 @@
       <c r="Q369" s="5"/>
       <c r="R369" s="5"/>
     </row>
-    <row r="370" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A370" s="4"/>
       <c r="B370" s="6"/>
       <c r="C370" s="6"/>
@@ -8529,7 +8529,7 @@
       <c r="Q370" s="5"/>
       <c r="R370" s="5"/>
     </row>
-    <row r="371" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A371" s="4"/>
       <c r="B371" s="6"/>
       <c r="C371" s="6"/>
@@ -8549,7 +8549,7 @@
       <c r="Q371" s="5"/>
       <c r="R371" s="5"/>
     </row>
-    <row r="372" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A372" s="4"/>
       <c r="B372" s="6"/>
       <c r="C372" s="6"/>
@@ -8569,7 +8569,7 @@
       <c r="Q372" s="5"/>
       <c r="R372" s="5"/>
     </row>
-    <row r="373" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A373" s="4"/>
       <c r="B373" s="6"/>
       <c r="C373" s="6"/>
@@ -8589,7 +8589,7 @@
       <c r="Q373" s="5"/>
       <c r="R373" s="5"/>
     </row>
-    <row r="374" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A374" s="4"/>
       <c r="B374" s="6"/>
       <c r="C374" s="6"/>
@@ -8609,7 +8609,7 @@
       <c r="Q374" s="5"/>
       <c r="R374" s="5"/>
     </row>
-    <row r="375" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A375" s="4"/>
       <c r="B375" s="6"/>
       <c r="C375" s="6"/>
@@ -8629,7 +8629,7 @@
       <c r="Q375" s="5"/>
       <c r="R375" s="5"/>
     </row>
-    <row r="376" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A376" s="4"/>
       <c r="B376" s="6"/>
       <c r="C376" s="6"/>
@@ -8649,7 +8649,7 @@
       <c r="Q376" s="5"/>
       <c r="R376" s="5"/>
     </row>
-    <row r="377" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A377" s="4"/>
       <c r="B377" s="6"/>
       <c r="C377" s="6"/>
@@ -8669,7 +8669,7 @@
       <c r="Q377" s="5"/>
       <c r="R377" s="5"/>
     </row>
-    <row r="378" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A378" s="4"/>
       <c r="B378" s="6"/>
       <c r="C378" s="6"/>
@@ -8689,7 +8689,7 @@
       <c r="Q378" s="5"/>
       <c r="R378" s="5"/>
     </row>
-    <row r="379" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A379" s="4"/>
       <c r="B379" s="6"/>
       <c r="C379" s="6"/>
@@ -8709,7 +8709,7 @@
       <c r="Q379" s="5"/>
       <c r="R379" s="5"/>
     </row>
-    <row r="380" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A380" s="4"/>
       <c r="B380" s="6"/>
       <c r="C380" s="6"/>
@@ -8729,7 +8729,7 @@
       <c r="Q380" s="5"/>
       <c r="R380" s="5"/>
     </row>
-    <row r="381" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A381" s="4"/>
       <c r="B381" s="6"/>
       <c r="C381" s="6"/>
@@ -8749,7 +8749,7 @@
       <c r="Q381" s="5"/>
       <c r="R381" s="5"/>
     </row>
-    <row r="382" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A382" s="4"/>
       <c r="B382" s="6"/>
       <c r="C382" s="6"/>
@@ -8769,7 +8769,7 @@
       <c r="Q382" s="5"/>
       <c r="R382" s="5"/>
     </row>
-    <row r="383" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A383" s="4"/>
       <c r="B383" s="6"/>
       <c r="C383" s="6"/>
@@ -8789,7 +8789,7 @@
       <c r="Q383" s="5"/>
       <c r="R383" s="5"/>
     </row>
-    <row r="384" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A384" s="4"/>
       <c r="B384" s="6"/>
       <c r="C384" s="6"/>
@@ -8809,7 +8809,7 @@
       <c r="Q384" s="5"/>
       <c r="R384" s="5"/>
     </row>
-    <row r="385" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A385" s="4"/>
       <c r="B385" s="6"/>
       <c r="C385" s="6"/>
@@ -8829,7 +8829,7 @@
       <c r="Q385" s="5"/>
       <c r="R385" s="5"/>
     </row>
-    <row r="386" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A386" s="4"/>
       <c r="B386" s="6"/>
       <c r="C386" s="6"/>
@@ -8849,7 +8849,7 @@
       <c r="Q386" s="5"/>
       <c r="R386" s="5"/>
     </row>
-    <row r="387" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A387" s="4"/>
       <c r="B387" s="6"/>
       <c r="C387" s="6"/>
@@ -8869,7 +8869,7 @@
       <c r="Q387" s="5"/>
       <c r="R387" s="5"/>
     </row>
-    <row r="388" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A388" s="4"/>
       <c r="B388" s="6"/>
       <c r="C388" s="6"/>
@@ -8889,7 +8889,7 @@
       <c r="Q388" s="5"/>
       <c r="R388" s="5"/>
     </row>
-    <row r="389" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A389" s="4"/>
       <c r="B389" s="6"/>
       <c r="C389" s="6"/>
@@ -8909,7 +8909,7 @@
       <c r="Q389" s="5"/>
       <c r="R389" s="5"/>
     </row>
-    <row r="390" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A390" s="4"/>
       <c r="B390" s="6"/>
       <c r="C390" s="6"/>
@@ -8929,7 +8929,7 @@
       <c r="Q390" s="5"/>
       <c r="R390" s="5"/>
     </row>
-    <row r="391" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A391" s="4"/>
       <c r="B391" s="6"/>
       <c r="C391" s="6"/>
@@ -8949,7 +8949,7 @@
       <c r="Q391" s="5"/>
       <c r="R391" s="5"/>
     </row>
-    <row r="392" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A392" s="4"/>
       <c r="B392" s="6"/>
       <c r="C392" s="6"/>
@@ -8969,7 +8969,7 @@
       <c r="Q392" s="5"/>
       <c r="R392" s="5"/>
     </row>
-    <row r="393" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A393" s="4"/>
       <c r="B393" s="6"/>
       <c r="C393" s="6"/>
@@ -8989,7 +8989,7 @@
       <c r="Q393" s="5"/>
       <c r="R393" s="5"/>
     </row>
-    <row r="394" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A394" s="4"/>
       <c r="B394" s="6"/>
       <c r="C394" s="6"/>
@@ -9009,7 +9009,7 @@
       <c r="Q394" s="5"/>
       <c r="R394" s="5"/>
     </row>
-    <row r="395" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A395" s="4"/>
       <c r="B395" s="6"/>
       <c r="C395" s="6"/>
@@ -9029,7 +9029,7 @@
       <c r="Q395" s="5"/>
       <c r="R395" s="5"/>
     </row>
-    <row r="396" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A396" s="4"/>
       <c r="B396" s="6"/>
       <c r="C396" s="6"/>
@@ -9049,7 +9049,7 @@
       <c r="Q396" s="5"/>
       <c r="R396" s="5"/>
     </row>
-    <row r="397" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A397" s="4"/>
       <c r="B397" s="6"/>
       <c r="C397" s="6"/>
@@ -9069,7 +9069,7 @@
       <c r="Q397" s="5"/>
       <c r="R397" s="5"/>
     </row>
-    <row r="398" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A398" s="4"/>
       <c r="B398" s="6"/>
       <c r="C398" s="6"/>
@@ -9089,7 +9089,7 @@
       <c r="Q398" s="5"/>
       <c r="R398" s="5"/>
     </row>
-    <row r="399" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A399" s="4"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
